--- a/ShoppingTest/Book1.xlsx
+++ b/ShoppingTest/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
